--- a/ventaCoches.xlsx
+++ b/ventaCoches.xlsx
@@ -1,86 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereira/Library/CloudStorage/ProtonDrive-jordipereiragude@protonmail.com-folder/docencia_BSM/2024/MUDAB-datosLogistica/sesion1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereira/Library/CloudStorage/ProtonDrive-jordipereiragude@protonmail.com-folder/docencia_BSM/2024/NuevasTecnologias-InteligenciaArtificial/cars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF7CA38-1615-8043-9AF3-93C5655559B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B3666-92A2-BE47-AEF8-8316919A0FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="42700" activeTab="1" xr2:uid="{8F752FB5-6857-8148-80D3-906F44810467}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="42700" xr2:uid="{8F752FB5-6857-8148-80D3-906F44810467}"/>
   </bookViews>
   <sheets>
     <sheet name="Europa" sheetId="1" r:id="rId1"/>
     <sheet name="España" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">Europa!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Europa!$A$6</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">Europa!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">Europa!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v5.12" hidden="1">Europa!$B$1</definedName>
-    <definedName name="_xlchart.v5.13" hidden="1">Europa!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">Europa!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">Europa!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">España!$A$1</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">España!$A$2</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">España!$B$1</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">España!$B$2</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Europa!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">España!$A$1</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">España!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">España!$B$1</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">España!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">España!$A$1</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">España!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">España!$B$1</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">España!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v5.28" hidden="1">España!$A$12</definedName>
-    <definedName name="_xlchart.v5.29" hidden="1">España!$A$13</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Europa!$B$6</definedName>
-    <definedName name="_xlchart.v5.30" hidden="1">España!$A$14</definedName>
-    <definedName name="_xlchart.v5.31" hidden="1">España!$A$15</definedName>
-    <definedName name="_xlchart.v5.32" hidden="1">España!$A$16</definedName>
-    <definedName name="_xlchart.v5.33" hidden="1">España!$A$17</definedName>
-    <definedName name="_xlchart.v5.34" hidden="1">España!$A$18</definedName>
-    <definedName name="_xlchart.v5.35" hidden="1">España!$A$19</definedName>
-    <definedName name="_xlchart.v5.36" hidden="1">España!$A$1:$A$11</definedName>
-    <definedName name="_xlchart.v5.37" hidden="1">España!$B$12</definedName>
-    <definedName name="_xlchart.v5.38" hidden="1">España!$B$13</definedName>
-    <definedName name="_xlchart.v5.39" hidden="1">España!$B$14</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Europa!$A$1</definedName>
-    <definedName name="_xlchart.v5.40" hidden="1">España!$B$15</definedName>
-    <definedName name="_xlchart.v5.41" hidden="1">España!$B$16</definedName>
-    <definedName name="_xlchart.v5.42" hidden="1">España!$B$17</definedName>
-    <definedName name="_xlchart.v5.43" hidden="1">España!$B$18</definedName>
-    <definedName name="_xlchart.v5.44" hidden="1">España!$B$19</definedName>
-    <definedName name="_xlchart.v5.45" hidden="1">España!$B$1:$B$11</definedName>
-    <definedName name="_xlchart.v5.46" hidden="1">España!$A$1</definedName>
-    <definedName name="_xlchart.v5.47" hidden="1">España!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v5.48" hidden="1">España!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v5.49" hidden="1">España!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Europa!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v5.50" hidden="1">España!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v5.51" hidden="1">España!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v5.52" hidden="1">España!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v5.53" hidden="1">España!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v5.54" hidden="1">España!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v5.55" hidden="1">España!$B$1</definedName>
-    <definedName name="_xlchart.v5.56" hidden="1">España!$B$2:$B$19</definedName>
-    <definedName name="_xlchart.v5.57" hidden="1">España!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v5.58" hidden="1">España!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v5.59" hidden="1">España!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Europa!$B$1</definedName>
-    <definedName name="_xlchart.v5.60" hidden="1">España!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v5.61" hidden="1">España!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v5.62" hidden="1">España!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v5.63" hidden="1">España!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Europa!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">Europa!$A$1</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">Europa!$A$2:$A$28</definedName>
     <definedName name="inicial" localSheetId="0">Europa!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -139,72 +75,6 @@
     <t>País</t>
   </si>
   <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
-    <t>Croacia</t>
-  </si>
-  <si>
-    <t>Chequia</t>
-  </si>
-  <si>
-    <t>Dinamarca</t>
-  </si>
-  <si>
-    <t>República de Chipre</t>
-  </si>
-  <si>
-    <t>Finlandia</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>Alemania</t>
-  </si>
-  <si>
-    <t>Grecia</t>
-  </si>
-  <si>
-    <t>Hungría</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>Letonia</t>
-  </si>
-  <si>
-    <t>Lituania</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>Países Bajos</t>
-  </si>
-  <si>
-    <t>Polonia</t>
-  </si>
-  <si>
-    <t>Rumanía</t>
-  </si>
-  <si>
-    <t>Eslovaquia</t>
-  </si>
-  <si>
-    <t>Eslovenia</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Suecia</t>
-  </si>
-  <si>
     <t>Comunidad</t>
   </si>
   <si>
@@ -265,10 +135,76 @@
     <t>Islas Baleares</t>
   </si>
   <si>
-    <t>Ventas 2023</t>
-  </si>
-  <si>
-    <t>Ventas 2022</t>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Ventas2023</t>
+  </si>
+  <si>
+    <t>Ventas2022</t>
   </si>
 </sst>
 </file>
@@ -653,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DAC29A-6073-AD4D-B2E5-F6B6CD4B6CBE}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +624,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>476675</v>
@@ -710,7 +646,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>57694</v>
@@ -721,7 +657,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>14740</v>
@@ -732,7 +668,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>221419</v>
@@ -743,7 +679,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>172798</v>
@@ -765,7 +701,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>87502</v>
@@ -776,7 +712,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1774723</v>
@@ -787,7 +723,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2844609</v>
@@ -798,7 +734,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>134484</v>
@@ -809,7 +745,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>107720</v>
@@ -820,7 +756,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>122310</v>
@@ -831,7 +767,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>1565331</v>
@@ -842,7 +778,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>19083</v>
@@ -853,7 +789,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>27528</v>
@@ -864,7 +800,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>49151</v>
@@ -886,7 +822,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>369791</v>
@@ -897,7 +833,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>475032</v>
@@ -919,7 +855,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>144611</v>
@@ -930,7 +866,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>88003</v>
@@ -941,7 +877,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>48809</v>
@@ -952,7 +888,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>949359</v>
@@ -963,7 +899,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>289827</v>
@@ -982,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F95A435-2E20-4743-804C-4C3A87E3BF15}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="309" zoomScaleNormal="309" workbookViewId="0">
+    <sheetView zoomScale="309" zoomScaleNormal="309" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -993,15 +929,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>411824</v>
@@ -1009,7 +945,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>118688</v>
@@ -1017,7 +953,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>89997</v>
@@ -1025,7 +961,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>81917</v>
@@ -1033,7 +969,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>53445</v>
@@ -1041,7 +977,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>26066</v>
@@ -1049,7 +985,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>24808</v>
@@ -1057,7 +993,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>24408</v>
@@ -1065,7 +1001,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>22653</v>
@@ -1073,7 +1009,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>20954</v>
@@ -1081,7 +1017,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>18966</v>
@@ -1089,7 +1025,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>16094</v>
@@ -1097,7 +1033,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>11282</v>
@@ -1105,7 +1041,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>8781</v>
@@ -1113,7 +1049,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>7173</v>
@@ -1121,7 +1057,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>6894</v>
@@ -1129,7 +1065,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>3365</v>
@@ -1137,7 +1073,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>2044</v>
